--- a/data/output/FV2410_FV2404/PARTIN/37001.xlsx
+++ b/data/output/FV2410_FV2404/PARTIN/37001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7106" uniqueCount="336">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7127" uniqueCount="336">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1131,6 +1131,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U301" totalsRowShown="0">
+  <autoFilter ref="A1:U301"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1420,7 +1450,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16378,5 +16411,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/PARTIN/37001.xlsx
+++ b/data/output/FV2410_FV2404/PARTIN/37001.xlsx
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -3623,7 +3623,7 @@
         <v>315</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3839,7 +3839,7 @@
         <v>315</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2"/>
@@ -5337,7 +5337,7 @@
         <v>319</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6363,7 +6363,7 @@
         <v>322</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6575,7 +6575,7 @@
         <v>323</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7623,7 +7623,7 @@
         <v>319</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8575,7 +8575,7 @@
         <v>330</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9527,7 +9527,7 @@
         <v>331</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -10007,7 +10007,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10479,7 +10479,7 @@
         <v>332</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10959,7 +10959,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11431,7 +11431,7 @@
         <v>333</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12115,7 +12115,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -12383,7 +12383,7 @@
         <v>334</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -13067,7 +13067,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -13335,7 +13335,7 @@
         <v>335</v>
       </c>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -13815,7 +13815,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -14019,7 +14019,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -14287,7 +14287,7 @@
         <v>332</v>
       </c>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -14767,7 +14767,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -14971,7 +14971,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -15239,7 +15239,7 @@
         <v>335</v>
       </c>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -15719,7 +15719,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -16191,7 +16191,7 @@
         <v>319</v>
       </c>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -16671,7 +16671,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -16875,7 +16875,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -17143,7 +17143,7 @@
         <v>336</v>
       </c>
       <c r="L281" s="4"/>
-      <c r="M281" s="2" t="s">
+      <c r="M281" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N281" s="2" t="s">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -17827,7 +17827,7 @@
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N299" s="2"/>
